--- a/prep/R/rc_NOAA_soc_survey.xlsx
+++ b/prep/R/rc_NOAA_soc_survey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36460" yWindow="-1500" windowWidth="29940" windowHeight="16200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-36460" yWindow="-1500" windowWidth="29940" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,6 +290,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -299,15 +306,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1891,35 +1891,35 @@
         <v>12</v>
       </c>
       <c r="E19" s="2">
-        <f>E15/SUM(E$12:E$15)</f>
+        <f t="shared" ref="E19:L19" si="15">E15/SUM(E$12:E$15)</f>
         <v>0.35218093699515346</v>
       </c>
       <c r="F19" s="2">
-        <f>F15/SUM(F$12:F$15)</f>
+        <f t="shared" si="15"/>
         <v>0.17235772357723578</v>
       </c>
       <c r="G19" s="2">
-        <f>G15/SUM(G$12:G$15)</f>
+        <f t="shared" si="15"/>
         <v>9.3851132686084138E-2</v>
       </c>
       <c r="H19" s="2">
-        <f>H15/SUM(H$12:H$15)</f>
+        <f t="shared" si="15"/>
         <v>8.2658022690437608E-2</v>
       </c>
       <c r="I19" s="2">
-        <f>I15/SUM(I$12:I$15)</f>
+        <f t="shared" si="15"/>
         <v>0.22977346278317151</v>
       </c>
       <c r="J19" s="2">
-        <f>J15/SUM(J$12:J$15)</f>
+        <f t="shared" si="15"/>
         <v>6.8071312803889783E-2</v>
       </c>
       <c r="K19" s="2">
-        <f>K15/SUM(K$12:K$15)</f>
+        <f t="shared" si="15"/>
         <v>0.13570274636510501</v>
       </c>
       <c r="L19" s="2">
-        <f>L15/SUM(L$12:L$15)</f>
+        <f t="shared" si="15"/>
         <v>6.9579288025889974E-2</v>
       </c>
       <c r="O19" s="2"/>
@@ -1944,31 +1944,31 @@
         <v>0.82714054927302105</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:L20" si="15">1-F16</f>
+        <f t="shared" ref="F20:L20" si="16">1-F16</f>
         <v>0.60813008130081303</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.3381877022653722</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.54457050243111826</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.81229773462783172</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.33387358184764993</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.36833602584814218</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.30744336569579289</v>
       </c>
       <c r="O20" s="2"/>
@@ -2643,31 +2643,31 @@
         <v>0.14354066985645933</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29:L29" si="16">F25/SUM(F$25:F$28)</f>
+        <f t="shared" ref="F29:L29" si="17">F25/SUM(F$25:F$28)</f>
         <v>0.40284360189573459</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.62411347517730498</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40380047505938244</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.12826603325415678</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.60952380952380958</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.50591016548463352</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.57311320754716977</v>
       </c>
       <c r="O29" s="2"/>
@@ -2694,35 +2694,35 @@
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ref="E30:E31" si="17">E26/SUM(E$25:E$28)</f>
+        <f t="shared" ref="E30:E31" si="18">E26/SUM(E$25:E$28)</f>
         <v>0.23444976076555024</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:L30" si="18">F26/SUM(F$25:F$28)</f>
+        <f t="shared" ref="F30:L30" si="19">F26/SUM(F$25:F$28)</f>
         <v>0.32701421800947866</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.18912529550827423</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.42280285035629456</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.34679334916864607</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.26904761904761904</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.20803782505910165</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.30424528301886794</v>
       </c>
       <c r="O30" s="2"/>
@@ -2750,35 +2750,35 @@
         <v>11</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.14832535885167464</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ref="F31:L31" si="19">F27/SUM(F$25:F$28)</f>
+        <f t="shared" ref="F31:L31" si="20">F27/SUM(F$25:F$28)</f>
         <v>8.7677725118483416E-2</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.4373522458628844E-2</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.7885985748218529E-2</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.18764845605700711</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.0476190476190478E-2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.2009456264775412E-2</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.6603773584905662E-2</v>
       </c>
       <c r="O31" s="2"/>
@@ -2810,31 +2810,31 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ref="F32:L32" si="20">F28/SUM(F$25:F$28)</f>
+        <f t="shared" ref="F32:L32" si="21">F28/SUM(F$25:F$28)</f>
         <v>0.18246445497630331</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13238770685579196</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5510688836104506E-2</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.33729216152019004</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.0952380952380956E-2</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.23404255319148937</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.6037735849056603E-2</v>
       </c>
       <c r="O32" s="2"/>
@@ -2859,31 +2859,31 @@
         <v>0.8564593301435407</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" ref="F33:L33" si="21">1-F29</f>
+        <f t="shared" ref="F33:L33" si="22">1-F29</f>
         <v>0.59715639810426535</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.37588652482269502</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.59619952494061756</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.87173396674584325</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.39047619047619042</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.49408983451536648</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.42688679245283023</v>
       </c>
     </row>
@@ -3545,43 +3545,43 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <f>SUM(E21,E34,E38)</f>
+        <f t="shared" ref="E42:N42" si="23">SUM(E21,E34,E38)</f>
         <v>94</v>
       </c>
       <c r="F42">
-        <f>SUM(F21,F34,F38)</f>
+        <f t="shared" si="23"/>
         <v>213</v>
       </c>
       <c r="G42">
-        <f>SUM(G21,G34,G38)</f>
+        <f t="shared" si="23"/>
         <v>339</v>
       </c>
       <c r="H42">
-        <f>SUM(H21,H34,H38)</f>
+        <f t="shared" si="23"/>
         <v>263</v>
       </c>
       <c r="I42">
-        <f>SUM(I21,I34,I38)</f>
+        <f t="shared" si="23"/>
         <v>106</v>
       </c>
       <c r="J42">
-        <f>SUM(J21,J34,J38)</f>
+        <f t="shared" si="23"/>
         <v>328</v>
       </c>
       <c r="K42">
-        <f>SUM(K21,K34,K38)</f>
+        <f t="shared" si="23"/>
         <v>287</v>
       </c>
       <c r="L42">
-        <f>SUM(L21,L34,L38)</f>
+        <f t="shared" si="23"/>
         <v>353</v>
       </c>
       <c r="M42">
-        <f>SUM(M21,M34,M38)</f>
+        <f t="shared" si="23"/>
         <v>308</v>
       </c>
       <c r="N42">
-        <f>SUM(N21,N34,N38)</f>
+        <f t="shared" si="23"/>
         <v>359</v>
       </c>
       <c r="O42" s="2">
@@ -3635,43 +3635,43 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f>SUM(E22,E35,E39)</f>
+        <f t="shared" ref="E43:N43" si="24">SUM(E22,E35,E39)</f>
         <v>120</v>
       </c>
       <c r="F43">
-        <f>SUM(F22,F35,F39)</f>
+        <f t="shared" si="24"/>
         <v>165</v>
       </c>
       <c r="G43">
-        <f>SUM(G22,G35,G39)</f>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H43">
-        <f>SUM(H22,H35,H39)</f>
+        <f t="shared" si="24"/>
         <v>191</v>
       </c>
       <c r="I43">
-        <f>SUM(I22,I35,I39)</f>
+        <f t="shared" si="24"/>
         <v>183</v>
       </c>
       <c r="J43">
-        <f>SUM(J22,J35,J39)</f>
+        <f t="shared" si="24"/>
         <v>145</v>
       </c>
       <c r="K43">
-        <f>SUM(K22,K35,K39)</f>
+        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="L43">
-        <f>SUM(L22,L35,L39)</f>
+        <f t="shared" si="24"/>
         <v>116</v>
       </c>
       <c r="M43">
-        <f>SUM(M22,M35,M39)</f>
+        <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="N43">
-        <f>SUM(N22,N35,N39)</f>
+        <f t="shared" si="24"/>
         <v>110</v>
       </c>
       <c r="O43" s="2">
@@ -3726,43 +3726,43 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <f>SUM(E23,E36,E40)</f>
+        <f t="shared" ref="E44:N44" si="25">SUM(E23,E36,E40)</f>
         <v>71</v>
       </c>
       <c r="F44">
-        <f>SUM(F23,F36,F40)</f>
+        <f t="shared" si="25"/>
         <v>49</v>
       </c>
       <c r="G44">
-        <f>SUM(G23,G36,G40)</f>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="H44">
-        <f>SUM(H23,H36,H40)</f>
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="I44">
-        <f>SUM(I23,I36,I40)</f>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="J44">
-        <f>SUM(J23,J36,J40)</f>
+        <f t="shared" si="25"/>
         <v>27</v>
       </c>
       <c r="K44">
-        <f>SUM(K23,K36,K40)</f>
+        <f t="shared" si="25"/>
         <v>46</v>
       </c>
       <c r="L44">
-        <f>SUM(L23,L36,L40)</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="M44">
-        <f>SUM(M23,M36,M40)</f>
+        <f t="shared" si="25"/>
         <v>38</v>
       </c>
       <c r="N44">
-        <f>SUM(N23,N36,N40)</f>
+        <f t="shared" si="25"/>
         <v>35</v>
       </c>
       <c r="O44" s="2">
@@ -3817,43 +3817,43 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <f>SUM(E24,E37,E41)</f>
+        <f t="shared" ref="E45:N45" si="26">SUM(E24,E37,E41)</f>
         <v>248</v>
       </c>
       <c r="F45">
-        <f>SUM(F24,F37,F41)</f>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="G45">
-        <f>SUM(G24,G37,G41)</f>
+        <f t="shared" si="26"/>
         <v>69</v>
       </c>
       <c r="H45">
-        <f>SUM(H24,H37,H41)</f>
+        <f t="shared" si="26"/>
         <v>38</v>
       </c>
       <c r="I45">
-        <f>SUM(I24,I37,I41)</f>
+        <f t="shared" si="26"/>
         <v>154</v>
       </c>
       <c r="J45">
-        <f>SUM(J24,J37,J41)</f>
+        <f t="shared" si="26"/>
         <v>37</v>
       </c>
       <c r="K45">
-        <f>SUM(K24,K37,K41)</f>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="L45">
-        <f>SUM(L24,L37,L41)</f>
+        <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="M45">
-        <f>SUM(M24,M37,M41)</f>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="N45">
-        <f>SUM(N24,N37,N41)</f>
+        <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="O45" s="2">
@@ -3978,43 +3978,43 @@
         <v>9</v>
       </c>
       <c r="E47" s="2">
-        <f>E42/SUM(E$42:E$45)</f>
+        <f t="shared" ref="E47:N47" si="27">E42/SUM(E$42:E$45)</f>
         <v>0.17636022514071295</v>
       </c>
       <c r="F47" s="2">
-        <f>F42/SUM(F$42:F$45)</f>
+        <f t="shared" si="27"/>
         <v>0.398876404494382</v>
       </c>
       <c r="G47" s="2">
-        <f>G42/SUM(G$42:G$45)</f>
+        <f t="shared" si="27"/>
         <v>0.62777777777777777</v>
       </c>
       <c r="H47" s="2">
-        <f>H42/SUM(H$42:H$45)</f>
+        <f t="shared" si="27"/>
         <v>0.48975791433891991</v>
       </c>
       <c r="I47" s="2">
-        <f>I42/SUM(I$42:I$45)</f>
+        <f t="shared" si="27"/>
         <v>0.19666048237476808</v>
       </c>
       <c r="J47" s="2">
-        <f>J42/SUM(J$42:J$45)</f>
+        <f t="shared" si="27"/>
         <v>0.61080074487895719</v>
       </c>
       <c r="K47" s="2">
-        <f>K42/SUM(K$42:K$45)</f>
+        <f t="shared" si="27"/>
         <v>0.52952029520295207</v>
       </c>
       <c r="L47" s="2">
-        <f>L42/SUM(L$42:L$45)</f>
+        <f t="shared" si="27"/>
         <v>0.65249537892791132</v>
       </c>
       <c r="M47" s="2">
-        <f>M42/SUM(M$42:M$45)</f>
+        <f t="shared" si="27"/>
         <v>0.56931608133086875</v>
       </c>
       <c r="N47" s="2">
-        <f>N42/SUM(N$42:N$45)</f>
+        <f t="shared" si="27"/>
         <v>0.66728624535315983</v>
       </c>
     </row>
@@ -4032,43 +4032,43 @@
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f>E43/SUM(E$42:E$45)</f>
+        <f t="shared" ref="E48:N48" si="28">E43/SUM(E$42:E$45)</f>
         <v>0.22514071294559099</v>
       </c>
       <c r="F48" s="2">
-        <f>F43/SUM(F$42:F$45)</f>
+        <f t="shared" si="28"/>
         <v>0.3089887640449438</v>
       </c>
       <c r="G48" s="2">
-        <f>G43/SUM(G$42:G$45)</f>
+        <f t="shared" si="28"/>
         <v>0.18518518518518517</v>
       </c>
       <c r="H48" s="2">
-        <f>H43/SUM(H$42:H$45)</f>
+        <f t="shared" si="28"/>
         <v>0.35567970204841715</v>
       </c>
       <c r="I48" s="2">
-        <f>I43/SUM(I$42:I$45)</f>
+        <f t="shared" si="28"/>
         <v>0.33951762523191092</v>
       </c>
       <c r="J48" s="2">
-        <f>J43/SUM(J$42:J$45)</f>
+        <f t="shared" si="28"/>
         <v>0.27001862197392923</v>
       </c>
       <c r="K48" s="2">
-        <f>K43/SUM(K$42:K$45)</f>
+        <f t="shared" si="28"/>
         <v>0.17896678966789667</v>
       </c>
       <c r="L48" s="2">
-        <f>L43/SUM(L$42:L$45)</f>
+        <f t="shared" si="28"/>
         <v>0.2144177449168207</v>
       </c>
       <c r="M48" s="2">
-        <f>M43/SUM(M$42:M$45)</f>
+        <f t="shared" si="28"/>
         <v>0.22920517560073936</v>
       </c>
       <c r="N48" s="2">
-        <f>N43/SUM(N$42:N$45)</f>
+        <f t="shared" si="28"/>
         <v>0.20446096654275092</v>
       </c>
     </row>
@@ -4087,43 +4087,43 @@
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <f>E44/SUM(E$42:E$45)</f>
+        <f t="shared" ref="E49:N49" si="29">E44/SUM(E$42:E$45)</f>
         <v>0.13320825515947468</v>
       </c>
       <c r="F49" s="2">
-        <f>F44/SUM(F$42:F$45)</f>
+        <f t="shared" si="29"/>
         <v>9.1760299625468167E-2</v>
       </c>
       <c r="G49" s="2">
-        <f>G44/SUM(G$42:G$45)</f>
+        <f t="shared" si="29"/>
         <v>5.9259259259259262E-2</v>
       </c>
       <c r="H49" s="2">
-        <f>H44/SUM(H$42:H$45)</f>
+        <f t="shared" si="29"/>
         <v>8.3798882681564241E-2</v>
       </c>
       <c r="I49" s="2">
-        <f>I44/SUM(I$42:I$45)</f>
+        <f t="shared" si="29"/>
         <v>0.17810760667903525</v>
       </c>
       <c r="J49" s="2">
-        <f>J44/SUM(J$42:J$45)</f>
+        <f t="shared" si="29"/>
         <v>5.027932960893855E-2</v>
       </c>
       <c r="K49" s="2">
-        <f>K44/SUM(K$42:K$45)</f>
+        <f t="shared" si="29"/>
         <v>8.4870848708487087E-2</v>
       </c>
       <c r="L49" s="2">
-        <f>L44/SUM(L$42:L$45)</f>
+        <f t="shared" si="29"/>
         <v>5.1756007393715345E-2</v>
       </c>
       <c r="M49" s="2">
-        <f>M44/SUM(M$42:M$45)</f>
+        <f t="shared" si="29"/>
         <v>7.0240295748613679E-2</v>
       </c>
       <c r="N49" s="2">
-        <f>N44/SUM(N$42:N$45)</f>
+        <f t="shared" si="29"/>
         <v>6.5055762081784388E-2</v>
       </c>
     </row>
@@ -4142,43 +4142,43 @@
         <v>12</v>
       </c>
       <c r="E50" s="2">
-        <f>E45/SUM(E$42:E$45)</f>
+        <f t="shared" ref="E50:N50" si="30">E45/SUM(E$42:E$45)</f>
         <v>0.46529080675422141</v>
       </c>
       <c r="F50" s="2">
-        <f>F45/SUM(F$42:F$45)</f>
+        <f t="shared" si="30"/>
         <v>0.20037453183520598</v>
       </c>
       <c r="G50" s="2">
-        <f>G45/SUM(G$42:G$45)</f>
+        <f t="shared" si="30"/>
         <v>0.12777777777777777</v>
       </c>
       <c r="H50" s="2">
-        <f>H45/SUM(H$42:H$45)</f>
+        <f t="shared" si="30"/>
         <v>7.0763500931098691E-2</v>
       </c>
       <c r="I50" s="2">
-        <f>I45/SUM(I$42:I$45)</f>
+        <f t="shared" si="30"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="J50" s="2">
-        <f>J45/SUM(J$42:J$45)</f>
+        <f t="shared" si="30"/>
         <v>6.8901303538175043E-2</v>
       </c>
       <c r="K50" s="2">
-        <f>K45/SUM(K$42:K$45)</f>
+        <f t="shared" si="30"/>
         <v>0.20664206642066421</v>
       </c>
       <c r="L50" s="2">
-        <f>L45/SUM(L$42:L$45)</f>
+        <f t="shared" si="30"/>
         <v>8.1330868761552683E-2</v>
       </c>
       <c r="M50" s="2">
-        <f>M45/SUM(M$42:M$45)</f>
+        <f t="shared" si="30"/>
         <v>0.13123844731977818</v>
       </c>
       <c r="N50" s="2">
-        <f>N45/SUM(N$42:N$45)</f>
+        <f t="shared" si="30"/>
         <v>6.3197026022304828E-2</v>
       </c>
     </row>
@@ -4194,39 +4194,39 @@
         <v>0.82363977485928708</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" ref="F51:N51" si="22">1-F47</f>
+        <f t="shared" ref="F51:N51" si="31">1-F47</f>
         <v>0.601123595505618</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.37222222222222223</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.51024208566108009</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.80333951762523192</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.38919925512104281</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.47047970479704793</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.34750462107208868</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.43068391866913125</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.33271375464684017</v>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -4992,7 +4992,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="6">
@@ -5038,7 +5038,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="13"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="6">
         <v>2</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="13"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="6">
         <v>3</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="13"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6">
         <v>4</v>
       </c>
@@ -5170,7 +5170,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="6">
@@ -5216,7 +5216,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6">
         <v>3</v>
       </c>
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="13"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6">
         <v>4</v>
       </c>
@@ -5348,7 +5348,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="6">
@@ -5394,7 +5394,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="13"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="6">
         <v>2</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6">
         <v>3</v>
       </c>
@@ -5482,7 +5482,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="13"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="6">
         <v>4</v>
       </c>
@@ -5526,141 +5526,141 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="15">
-        <v>1</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
         <v>0</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <f t="shared" ref="E35:L35" si="12">E14*100</f>
         <v>14.354066985645932</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <f t="shared" si="12"/>
         <v>40.284360189573462</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <f t="shared" si="12"/>
         <v>62.411347517730498</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <f t="shared" si="12"/>
         <v>40.380047505938244</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="13">
         <f t="shared" si="12"/>
         <v>12.826603325415679</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="13">
         <f t="shared" si="12"/>
         <v>60.952380952380956</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="13">
         <f t="shared" si="12"/>
         <v>50.591016548463351</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="13">
         <f t="shared" si="12"/>
         <v>57.311320754716974</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="12">
         <v>2</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>12</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="13">
         <f t="shared" ref="E36:L36" si="13">E15*100</f>
         <v>23.444976076555022</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="13">
         <f t="shared" si="13"/>
         <v>32.70142180094787</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="13">
         <f t="shared" si="13"/>
         <v>18.912529550827422</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="13">
         <f t="shared" si="13"/>
         <v>42.280285035629454</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="13">
         <f t="shared" si="13"/>
         <v>34.679334916864605</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="13">
         <f t="shared" si="13"/>
         <v>26.904761904761905</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="13">
         <f t="shared" si="13"/>
         <v>20.803782505910164</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="13">
         <f t="shared" si="13"/>
         <v>30.424528301886795</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="12">
         <v>3</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>30</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <f t="shared" ref="E37:L37" si="14">E16*100</f>
         <v>14.832535885167463</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="13">
         <f t="shared" si="14"/>
         <v>8.7677725118483423</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="13">
         <f t="shared" si="14"/>
         <v>5.4373522458628845</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="13">
         <f t="shared" si="14"/>
         <v>8.7885985748218527</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="13">
         <f t="shared" si="14"/>
         <v>18.76484560570071</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="13">
         <f t="shared" si="14"/>
         <v>4.0476190476190474</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="13">
         <f t="shared" si="14"/>
         <v>5.2009456264775409</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="13">
         <f t="shared" si="14"/>
         <v>5.6603773584905666</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="8">
         <v>4</v>
       </c>
@@ -5670,35 +5670,35 @@
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="14">
         <f t="shared" ref="E38:L38" si="15">E17*100</f>
         <v>47.368421052631575</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="14">
         <f t="shared" si="15"/>
         <v>18.246445497630333</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="14">
         <f t="shared" si="15"/>
         <v>13.238770685579196</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="14">
         <f t="shared" si="15"/>
         <v>8.5510688836104514</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="14">
         <f t="shared" si="15"/>
         <v>33.729216152019006</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="14">
         <f t="shared" si="15"/>
         <v>8.0952380952380949</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="14">
         <f t="shared" si="15"/>
         <v>23.404255319148938</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="14">
         <f t="shared" si="15"/>
         <v>6.6037735849056602</v>
       </c>

--- a/prep/R/rc_NOAA_soc_survey.xlsx
+++ b/prep/R/rc_NOAA_soc_survey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36460" yWindow="-1500" windowWidth="29940" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="-37780" yWindow="-1560" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="33">
   <si>
     <t>geo</t>
   </si>
@@ -117,6 +117,9 @@
   <si>
     <t>*data from NOAA social-economic survey 2014</t>
   </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +201,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +267,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,9 +288,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,7 +312,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -343,6 +345,7 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -375,6 +378,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -706,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4243,10 +4247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4295,6 +4299,9 @@
       <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
@@ -4333,6 +4340,9 @@
       <c r="L2" s="7">
         <v>0.69255663430420711</v>
       </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
@@ -4371,6 +4381,9 @@
       <c r="L3" s="7">
         <v>0.20064724919093851</v>
       </c>
+      <c r="M3" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -4409,6 +4422,10 @@
       <c r="L4" s="7">
         <v>3.7216828478964403E-2</v>
       </c>
+      <c r="M4">
+        <f>12*2.5</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -4447,6 +4464,10 @@
       <c r="L5" s="7">
         <v>6.9579288025889974E-2</v>
       </c>
+      <c r="M5">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
@@ -4485,6 +4506,9 @@
       <c r="L6" s="7">
         <v>0.7250384024577573</v>
       </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -4523,6 +4547,9 @@
       <c r="L7" s="7">
         <v>0.17438271604938271</v>
       </c>
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -4561,6 +4588,10 @@
       <c r="L8" s="7">
         <v>2.9320987654320986E-2</v>
       </c>
+      <c r="M8">
+        <f>12*2.5</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
@@ -4598,6 +4629,10 @@
       </c>
       <c r="L9" s="7">
         <v>7.2530864197530867E-2</v>
+      </c>
+      <c r="M9">
+        <f>12*4</f>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4637,6 +4672,9 @@
       <c r="L10" s="7">
         <v>0.65249537892791132</v>
       </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
@@ -4675,6 +4713,9 @@
       <c r="L11" s="7">
         <v>0.2144177449168207</v>
       </c>
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
@@ -4713,6 +4754,10 @@
       <c r="L12" s="7">
         <v>5.1756007393715345E-2</v>
       </c>
+      <c r="M12">
+        <f>12*2.5</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
@@ -4751,6 +4796,10 @@
       <c r="L13" s="7">
         <v>8.1330868761552683E-2</v>
       </c>
+      <c r="M13">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
@@ -4789,6 +4838,9 @@
       <c r="L14" s="7">
         <v>0.57311320754716977</v>
       </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
@@ -4827,6 +4879,9 @@
       <c r="L15" s="7">
         <v>0.30424528301886794</v>
       </c>
+      <c r="M15" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
@@ -4865,7 +4920,10 @@
       <c r="L16" s="7">
         <v>5.6603773584905662E-2</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16">
+        <f>12*2.5</f>
+        <v>30</v>
+      </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
@@ -4905,810 +4963,777 @@
       <c r="L17" s="7">
         <v>6.6037735849056603E-2</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.59715639810426535</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.37588652482269502</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.59619952494061756</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.87173396674584325</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.39047619047619042</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0.49408983451536648</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.42688679245283023</v>
-      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30">
-      <c r="A22" s="4" t="s">
+    <row r="21" spans="1:14" ht="30">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="15" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E22" s="9">
         <f>E2*100</f>
         <v>17.285945072697899</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" ref="F23:L23" si="0">F2*100</f>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:L22" si="0">F2*100</f>
         <v>39.1869918699187</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>66.181229773462775</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>45.54294975688817</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>18.770226537216828</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J22" s="9">
         <f t="shared" si="0"/>
         <v>66.612641815235008</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K22" s="9">
         <f t="shared" si="0"/>
         <v>63.166397415185784</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L22" s="9">
         <f t="shared" si="0"/>
         <v>69.255663430420711</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="16"/>
-      <c r="B24" s="6">
+    <row r="23" spans="1:14">
+      <c r="A23" s="15"/>
+      <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C23" s="6">
         <v>12</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" ref="E24:L24" si="1">E3*100</f>
+      <c r="E23" s="9">
+        <f t="shared" ref="E23:L23" si="1">E3*100</f>
         <v>30.8562197092084</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F23" s="9">
         <f t="shared" si="1"/>
         <v>35.121951219512191</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G23" s="9">
         <f t="shared" si="1"/>
         <v>18.932038834951456</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="1"/>
         <v>39.222042139384115</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="1"/>
         <v>41.100323624595468</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J23" s="9">
         <f t="shared" si="1"/>
         <v>22.042139384116695</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K23" s="9">
         <f t="shared" si="1"/>
         <v>17.124394184168011</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L23" s="9">
         <f t="shared" si="1"/>
         <v>20.064724919093852</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="16"/>
-      <c r="B25" s="6">
+    <row r="24" spans="1:14">
+      <c r="A24" s="15"/>
+      <c r="B24" s="6">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C24" s="6">
         <v>30</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" ref="E25:L25" si="2">E4*100</f>
+      <c r="E24" s="9">
+        <f t="shared" ref="E24:L24" si="2">E4*100</f>
         <v>16.639741518578351</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>8.4552845528455283</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G24" s="9">
         <f t="shared" si="2"/>
         <v>5.5016181229773462</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="2"/>
         <v>6.9692058346839545</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="2"/>
         <v>17.15210355987055</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J24" s="9">
         <f t="shared" si="2"/>
         <v>4.5380875202593192</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K24" s="9">
         <f t="shared" si="2"/>
         <v>6.1389337641357029</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L24" s="9">
         <f t="shared" si="2"/>
         <v>3.7216828478964405</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="16"/>
-      <c r="B26" s="6">
+    <row r="25" spans="1:14">
+      <c r="A25" s="15"/>
+      <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C25" s="6">
         <v>48</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" ref="E26:L26" si="3">E5*100</f>
+      <c r="E25" s="9">
+        <f t="shared" ref="E25:L25" si="3">E5*100</f>
         <v>35.218093699515343</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F25" s="9">
         <f t="shared" si="3"/>
         <v>17.235772357723576</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G25" s="9">
         <f t="shared" si="3"/>
         <v>9.3851132686084142</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="3"/>
         <v>8.2658022690437605</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="3"/>
         <v>22.97734627831715</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J25" s="9">
         <f t="shared" si="3"/>
         <v>6.8071312803889779</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K25" s="9">
         <f t="shared" si="3"/>
         <v>13.570274636510501</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L25" s="9">
         <f t="shared" si="3"/>
         <v>6.9579288025889969</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
+    <row r="26" spans="1:14">
+      <c r="A26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" ref="E27:L27" si="4">E6*100</f>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26:L26" si="4">E6*100</f>
         <v>22.376543209876544</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F26" s="9">
         <f t="shared" si="4"/>
         <v>53.323029366306031</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G26" s="9">
         <f t="shared" si="4"/>
         <v>74.92307692307692</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="4"/>
         <v>54.250386398763531</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="4"/>
         <v>23.919753086419753</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J26" s="9">
         <f t="shared" si="4"/>
         <v>72.615384615384613</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K26" s="9">
         <f t="shared" si="4"/>
         <v>58.986175115207374</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L26" s="9">
         <f t="shared" si="4"/>
         <v>72.503840245775734</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="16"/>
-      <c r="B28" s="6">
+    <row r="27" spans="1:14">
+      <c r="A27" s="15"/>
+      <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C27" s="6">
         <v>12</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="10">
-        <f t="shared" ref="E28:L28" si="5">E7*100</f>
+      <c r="E27" s="9">
+        <f t="shared" ref="E27:L27" si="5">E7*100</f>
         <v>32.561728395061728</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F27" s="9">
         <f t="shared" si="5"/>
         <v>28.39506172839506</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G27" s="9">
         <f t="shared" si="5"/>
         <v>13.734567901234568</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="5"/>
         <v>36.728395061728399</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="5"/>
         <v>39.660493827160494</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J27" s="9">
         <f t="shared" si="5"/>
         <v>18.055555555555554</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K27" s="9">
         <f t="shared" si="5"/>
         <v>19.753086419753085</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L27" s="9">
         <f t="shared" si="5"/>
         <v>17.438271604938272</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="16"/>
-      <c r="B29" s="6">
+    <row r="28" spans="1:14">
+      <c r="A28" s="15"/>
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C28" s="6">
         <v>30</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" ref="E29:L29" si="6">E8*100</f>
+      <c r="E28" s="9">
+        <f t="shared" ref="E28:L28" si="6">E8*100</f>
         <v>12.962962962962962</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F28" s="9">
         <f t="shared" si="6"/>
         <v>7.098765432098765</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G28" s="9">
         <f t="shared" si="6"/>
         <v>4.7839506172839501</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H28" s="9">
         <f t="shared" si="6"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I28" s="9">
         <f t="shared" si="6"/>
         <v>19.1358024691358</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J28" s="9">
         <f t="shared" si="6"/>
         <v>3.7037037037037033</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K28" s="9">
         <f t="shared" si="6"/>
         <v>7.8703703703703702</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L28" s="9">
         <f t="shared" si="6"/>
         <v>2.9320987654320985</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="16"/>
-      <c r="B30" s="6">
+    <row r="29" spans="1:14">
+      <c r="A29" s="15"/>
+      <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C29" s="6">
         <v>48</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="10">
-        <f t="shared" ref="E30:L30" si="7">E9*100</f>
+      <c r="E29" s="9">
+        <f t="shared" ref="E29:L29" si="7">E9*100</f>
         <v>32.098765432098766</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F29" s="9">
         <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G29" s="9">
         <f t="shared" si="7"/>
         <v>6.6358024691358031</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H29" s="9">
         <f t="shared" si="7"/>
         <v>4.7839506172839501</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I29" s="9">
         <f t="shared" si="7"/>
         <v>17.283950617283949</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J29" s="9">
         <f t="shared" si="7"/>
         <v>5.7098765432098766</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K29" s="9">
         <f t="shared" si="7"/>
         <v>13.580246913580247</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L29" s="9">
         <f t="shared" si="7"/>
         <v>7.2530864197530871</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="16" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" ref="E31:L31" si="8">E10*100</f>
+      <c r="E30" s="9">
+        <f t="shared" ref="E30:L30" si="8">E10*100</f>
         <v>17.636022514071296</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F30" s="9">
         <f t="shared" si="8"/>
         <v>39.887640449438202</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G30" s="9">
         <f t="shared" si="8"/>
         <v>62.777777777777779</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="8"/>
         <v>48.975791433891992</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I30" s="9">
         <f t="shared" si="8"/>
         <v>19.666048237476808</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J30" s="9">
         <f t="shared" si="8"/>
         <v>61.080074487895722</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K30" s="9">
         <f t="shared" si="8"/>
         <v>52.952029520295206</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L30" s="9">
         <f t="shared" si="8"/>
         <v>65.249537892791125</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="16"/>
-      <c r="B32" s="6">
+    <row r="31" spans="1:14">
+      <c r="A31" s="15"/>
+      <c r="B31" s="6">
         <v>2</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C31" s="6">
         <v>12</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" ref="E32:L32" si="9">E11*100</f>
+      <c r="E31" s="9">
+        <f t="shared" ref="E31:L31" si="9">E11*100</f>
         <v>22.514071294559098</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F31" s="9">
         <f t="shared" si="9"/>
         <v>30.898876404494381</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G31" s="9">
         <f t="shared" si="9"/>
         <v>18.518518518518519</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H31" s="9">
         <f t="shared" si="9"/>
         <v>35.567970204841714</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I31" s="9">
         <f t="shared" si="9"/>
         <v>33.951762523191093</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J31" s="9">
         <f t="shared" si="9"/>
         <v>27.001862197392924</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K31" s="9">
         <f t="shared" si="9"/>
         <v>17.896678966789668</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L31" s="9">
         <f t="shared" si="9"/>
         <v>21.441774491682068</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="16"/>
-      <c r="B33" s="6">
+    <row r="32" spans="1:14">
+      <c r="A32" s="15"/>
+      <c r="B32" s="6">
         <v>3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C32" s="6">
         <v>30</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" ref="E33:L33" si="10">E12*100</f>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:L32" si="10">E12*100</f>
         <v>13.320825515947469</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F32" s="9">
         <f t="shared" si="10"/>
         <v>9.1760299625468171</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G32" s="9">
         <f t="shared" si="10"/>
         <v>5.9259259259259265</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H32" s="9">
         <f t="shared" si="10"/>
         <v>8.3798882681564244</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I32" s="9">
         <f t="shared" si="10"/>
         <v>17.810760667903523</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J32" s="9">
         <f t="shared" si="10"/>
         <v>5.027932960893855</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K32" s="9">
         <f t="shared" si="10"/>
         <v>8.4870848708487081</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L32" s="9">
         <f t="shared" si="10"/>
         <v>5.1756007393715349</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="16"/>
-      <c r="B34" s="6">
+    <row r="33" spans="1:12">
+      <c r="A33" s="15"/>
+      <c r="B33" s="6">
         <v>4</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C33" s="6">
         <v>48</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" ref="E34:L34" si="11">E13*100</f>
+      <c r="E33" s="9">
+        <f t="shared" ref="E33:L33" si="11">E13*100</f>
         <v>46.529080675422144</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F33" s="9">
         <f t="shared" si="11"/>
         <v>20.037453183520597</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G33" s="9">
         <f t="shared" si="11"/>
         <v>12.777777777777777</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H33" s="9">
         <f t="shared" si="11"/>
         <v>7.0763500931098688</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I33" s="9">
         <f t="shared" si="11"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J33" s="9">
         <f t="shared" si="11"/>
         <v>6.8901303538175043</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K33" s="9">
         <f t="shared" si="11"/>
         <v>20.664206642066421</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L33" s="9">
         <f t="shared" si="11"/>
         <v>8.1330868761552679</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="17" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="12">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
         <v>0</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="13">
-        <f t="shared" ref="E35:L35" si="12">E14*100</f>
+      <c r="E34" s="12">
+        <f t="shared" ref="E34:L34" si="12">E14*100</f>
         <v>14.354066985645932</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F34" s="12">
         <f t="shared" si="12"/>
         <v>40.284360189573462</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G34" s="12">
         <f t="shared" si="12"/>
         <v>62.411347517730498</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H34" s="12">
         <f t="shared" si="12"/>
         <v>40.380047505938244</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I34" s="12">
         <f t="shared" si="12"/>
         <v>12.826603325415679</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J34" s="12">
         <f t="shared" si="12"/>
         <v>60.952380952380956</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K34" s="12">
         <f t="shared" si="12"/>
         <v>50.591016548463351</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L34" s="12">
         <f t="shared" si="12"/>
         <v>57.311320754716974</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="12">
+    <row r="35" spans="1:12">
+      <c r="A35" s="16"/>
+      <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C35" s="11">
         <v>12</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="13">
-        <f t="shared" ref="E36:L36" si="13">E15*100</f>
+      <c r="E35" s="12">
+        <f t="shared" ref="E35:L35" si="13">E15*100</f>
         <v>23.444976076555022</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F35" s="12">
         <f t="shared" si="13"/>
         <v>32.70142180094787</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G35" s="12">
         <f t="shared" si="13"/>
         <v>18.912529550827422</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H35" s="12">
         <f t="shared" si="13"/>
         <v>42.280285035629454</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I35" s="12">
         <f t="shared" si="13"/>
         <v>34.679334916864605</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J35" s="12">
         <f t="shared" si="13"/>
         <v>26.904761904761905</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K35" s="12">
         <f t="shared" si="13"/>
         <v>20.803782505910164</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L35" s="12">
         <f t="shared" si="13"/>
         <v>30.424528301886795</v>
       </c>
     </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="16"/>
+      <c r="B36" s="11">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>30</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" ref="E36:L36" si="14">E16*100</f>
+        <v>14.832535885167463</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="14"/>
+        <v>8.7677725118483423</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="14"/>
+        <v>5.4373522458628845</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="14"/>
+        <v>8.7885985748218527</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="14"/>
+        <v>18.76484560570071</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="14"/>
+        <v>4.0476190476190474</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="14"/>
+        <v>5.2009456264775409</v>
+      </c>
+      <c r="L36" s="12">
+        <f t="shared" si="14"/>
+        <v>5.6603773584905666</v>
+      </c>
+    </row>
     <row r="37" spans="1:12">
       <c r="A37" s="17"/>
-      <c r="B37" s="12">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12">
-        <v>30</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>11</v>
+      <c r="B37" s="8">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="13">
-        <f t="shared" ref="E37:L37" si="14">E16*100</f>
-        <v>14.832535885167463</v>
+        <f t="shared" ref="E37:L37" si="15">E17*100</f>
+        <v>47.368421052631575</v>
       </c>
       <c r="F37" s="13">
-        <f t="shared" si="14"/>
-        <v>8.7677725118483423</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="14"/>
-        <v>5.4373522458628845</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="14"/>
-        <v>8.7885985748218527</v>
-      </c>
-      <c r="I37" s="13">
-        <f t="shared" si="14"/>
-        <v>18.76484560570071</v>
-      </c>
-      <c r="J37" s="13">
-        <f t="shared" si="14"/>
-        <v>4.0476190476190474</v>
-      </c>
-      <c r="K37" s="13">
-        <f t="shared" si="14"/>
-        <v>5.2009456264775409</v>
-      </c>
-      <c r="L37" s="13">
-        <f t="shared" si="14"/>
-        <v>5.6603773584905666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="18"/>
-      <c r="B38" s="8">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8">
-        <v>48</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" ref="E38:L38" si="15">E17*100</f>
-        <v>47.368421052631575</v>
-      </c>
-      <c r="F38" s="14">
         <f t="shared" si="15"/>
         <v>18.246445497630333</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G37" s="13">
         <f t="shared" si="15"/>
         <v>13.238770685579196</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H37" s="13">
         <f t="shared" si="15"/>
         <v>8.5510688836104514</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I37" s="13">
         <f t="shared" si="15"/>
         <v>33.729216152019006</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J37" s="13">
         <f t="shared" si="15"/>
         <v>8.0952380952380949</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K37" s="13">
         <f t="shared" si="15"/>
         <v>23.404255319148938</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L37" s="13">
         <f t="shared" si="15"/>
         <v>6.6037735849056602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
